--- a/stage_1/Formulas_Functions/finding_averages.xlsx
+++ b/stage_1/Formulas_Functions/finding_averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDA75A6-B895-4C2B-8B7F-16AA8F74693C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E4B27C-8D47-4AB3-B069-0866454741AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +560,10 @@
       <c r="F4" s="3">
         <v>8104</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G14" si="0" xml:space="preserve"> AVERAGE(C4:F4)</f>
+        <v>7143.25</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
@@ -578,7 +581,10 @@
       <c r="F5" s="3">
         <v>5081</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>6580</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
@@ -596,7 +602,10 @@
       <c r="F6" s="3">
         <v>6360</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>7736.75</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
@@ -614,7 +623,10 @@
       <c r="F7" s="3">
         <v>5484</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>6898</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
@@ -632,7 +644,10 @@
       <c r="F8" s="3">
         <v>7997</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>7658.75</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
@@ -650,7 +665,10 @@
       <c r="F9" s="3">
         <v>7908</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>6929.75</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
@@ -668,7 +686,10 @@
       <c r="F10" s="3">
         <v>9438</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>7927.25</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
@@ -686,7 +707,10 @@
       <c r="F11" s="3">
         <v>6957</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>7818</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
@@ -704,7 +728,10 @@
       <c r="F12" s="3">
         <v>9581</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>7393</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
@@ -722,7 +749,10 @@
       <c r="F13" s="3">
         <v>6435</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>7259.25</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
@@ -740,7 +770,10 @@
       <c r="F14" s="3">
         <v>8145</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>7384.25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
